--- a/biology/Botanique/Willowmere_(rose)/Willowmere_(rose).xlsx
+++ b/biology/Botanique/Willowmere_(rose)/Willowmere_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Willowmere’ est un cultivar de rose hybride de thé obtenue en 1913[1] par le rosiériste lyonnais Joseph Pernet-Ducher[2].
+‘Willowmere’ est un cultivar de rose hybride de thé obtenue en 1913 par le rosiériste lyonnais Joseph Pernet-Ducher.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Classée d'abord dans les Pernetianae, cet hybride de thé présente de grosses fleurs (17-25 pétales) roses aux nuances orangées évoluant au fur et à mesure vers le rose saumoné, les pétales extérieurs ayant des reflets rose-carmin. Elles sont légèrement parfumées et sont en forme de coupe. La floraison est remontante[3].
-Son buisson dressé et vigoureux est presque inerme, bien ramifié avec un feuillage vert clair et s'élève à 120 cm. Sa zone de rusticité est de 6b à 9b, il résiste donc au froid dans les zones tempérées, mais a besoin d'avoir le pied protégé par grand froid. Il faut le tailler nettement début mars[3].
-Ce rosier au coloris raffiné est issu du croisement d'un semis non nommé et du pollen de ‘Lyon Rose’ (Pernet-Ducher, 1913) ; dont il a pris la couleur, mais a un port plus dressé et des pédoncules plus forts ce qui ne fait pas ployer ses grosses fleurs[4]. Cette variété alors non nommée a été fort remarquée à l'exposition de Londres de 1912[2].
-Cette variété est présente dans de nombreuses roseraies du monde, mais n'est plus commercialisée. Elle a eu un renom certain dans l'entre-deux-guerres, mais la guerre et les hivers très rigoureux des années 1940 ont définitivement freiné les ventes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classée d'abord dans les Pernetianae, cet hybride de thé présente de grosses fleurs (17-25 pétales) roses aux nuances orangées évoluant au fur et à mesure vers le rose saumoné, les pétales extérieurs ayant des reflets rose-carmin. Elles sont légèrement parfumées et sont en forme de coupe. La floraison est remontante.
+Son buisson dressé et vigoureux est presque inerme, bien ramifié avec un feuillage vert clair et s'élève à 120 cm. Sa zone de rusticité est de 6b à 9b, il résiste donc au froid dans les zones tempérées, mais a besoin d'avoir le pied protégé par grand froid. Il faut le tailler nettement début mars.
+Ce rosier au coloris raffiné est issu du croisement d'un semis non nommé et du pollen de ‘Lyon Rose’ (Pernet-Ducher, 1913) ; dont il a pris la couleur, mais a un port plus dressé et des pédoncules plus forts ce qui ne fait pas ployer ses grosses fleurs. Cette variété alors non nommée a été fort remarquée à l'exposition de Londres de 1912.
+Cette variété est présente dans de nombreuses roseraies du monde, mais n'est plus commercialisée. Elle a eu un renom certain dans l'entre-deux-guerres, mais la guerre et les hivers très rigoureux des années 1940 ont définitivement freiné les ventes.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La rose ‘Willowmere’ doit son nom à Willowmere, la propriété de Long Island dans l'État de New York de l'amiral Ward et de son épouse, grands amateurs de roses. L'amiral était ami et commanditaire de Pernet-Ducher. Ce dernier avait déjà baptisé une rose en 1907 du nom de son épouse, ‘Mrs Aaron Ward’, et le fera pour une rose dédiée à l'amiral en 1915, appelée ‘Admiral Ward’. Le ménage Ward faisait cultiver beaucoup de variétés de roses dans son parc et l'amiral écrivait pour nombre de revues horticoles.
 </t>
